--- a/data/b/31-03-2024.xlsx
+++ b/data/b/31-03-2024.xlsx
@@ -168,6 +168,18 @@
     <t>3926.365</t>
   </si>
   <si>
+    <t>Principal Personal Tax Saver Fund - Regular Plan Growth</t>
+  </si>
+  <si>
+    <t>Sundaram Mutual Fund</t>
+  </si>
+  <si>
+    <t>EQUITY FUND</t>
+  </si>
+  <si>
+    <t>53442293</t>
+  </si>
+  <si>
     <t>NIPPON INDIA LIQUID FUND - DIRECT PLAN GROWTH PLAN - GROWTH OPTION</t>
   </si>
   <si>
@@ -186,18 +198,6 @@
     <t>NIPPON INDIA SMALL CAP FUND - DIRECT GROWTH PLAN GROWTH OPTION</t>
   </si>
   <si>
-    <t>Principal Personal Tax Saver Fund - Regular Plan Growth</t>
-  </si>
-  <si>
-    <t>Sundaram Mutual Fund</t>
-  </si>
-  <si>
-    <t>EQUITY FUND</t>
-  </si>
-  <si>
-    <t>53442293</t>
-  </si>
-  <si>
     <t>quant Small Cap Fund - Direct Plan Growth</t>
   </si>
   <si>
@@ -2259,6 +2259,12 @@
     <t>-22839.92</t>
   </si>
   <si>
+    <t>Change of Mobile Processed</t>
+  </si>
+  <si>
+    <t>10-SEP-2023</t>
+  </si>
+  <si>
     <t>Switch over In</t>
   </si>
   <si>
@@ -2512,12 +2518,6 @@
   </si>
   <si>
     <t>-98.48</t>
-  </si>
-  <si>
-    <t>Change of Mobile Processed</t>
-  </si>
-  <si>
-    <t>10-SEP-2023</t>
   </si>
   <si>
     <t>***Address Updated from CVL Data***</t>
@@ -3725,13 +3725,13 @@
         <v>55</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s" s="2">
         <v>26</v>
@@ -3748,16 +3748,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="B24" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="C24" t="s" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s" s="2">
         <v>26</v>
@@ -3774,16 +3774,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="E25" t="s" s="2">
         <v>26</v>
@@ -3832,7 +3832,7 @@
         <v>62</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>63</v>
@@ -9131,53 +9131,53 @@
         <v>748</v>
       </c>
       <c r="C261" t="s" s="4">
-        <v>223</v>
+        <v>749</v>
       </c>
       <c r="D261" t="s" s="4">
-        <v>749</v>
+        <v>25</v>
       </c>
       <c r="E261" t="s" s="4">
-        <v>750</v>
+        <v>27</v>
       </c>
       <c r="F261" t="s" s="4">
-        <v>751</v>
+        <v>26</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="4">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B262" t="s" s="4">
+        <v>750</v>
+      </c>
+      <c r="C262" t="s" s="4">
+        <v>223</v>
+      </c>
+      <c r="D262" t="s" s="4">
+        <v>751</v>
+      </c>
+      <c r="E262" t="s" s="4">
         <v>752</v>
       </c>
-      <c r="C262" t="s" s="4">
-        <v>108</v>
-      </c>
-      <c r="D262" t="s" s="4">
-        <v>749</v>
-      </c>
-      <c r="E262" t="s" s="4">
+      <c r="F262" t="s" s="4">
         <v>753</v>
-      </c>
-      <c r="F262" t="s" s="4">
-        <v>221</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="4">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B263" t="s" s="4">
         <v>754</v>
       </c>
       <c r="C263" t="s" s="4">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D263" t="s" s="4">
+        <v>751</v>
+      </c>
+      <c r="E263" t="s" s="4">
         <v>755</v>
-      </c>
-      <c r="E263" t="s" s="4">
-        <v>756</v>
       </c>
       <c r="F263" t="s" s="4">
         <v>221</v>
@@ -9185,19 +9185,19 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="4">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B264" t="s" s="4">
+        <v>756</v>
+      </c>
+      <c r="C264" t="s" s="4">
+        <v>124</v>
+      </c>
+      <c r="D264" t="s" s="4">
         <v>757</v>
       </c>
-      <c r="C264" t="s" s="4">
+      <c r="E264" t="s" s="4">
         <v>758</v>
-      </c>
-      <c r="D264" t="s" s="4">
-        <v>759</v>
-      </c>
-      <c r="E264" t="s" s="4">
-        <v>760</v>
       </c>
       <c r="F264" t="s" s="4">
         <v>221</v>
@@ -9205,19 +9205,19 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="4">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B265" t="s" s="4">
+        <v>759</v>
+      </c>
+      <c r="C265" t="s" s="4">
+        <v>760</v>
+      </c>
+      <c r="D265" t="s" s="4">
         <v>761</v>
       </c>
-      <c r="C265" t="s" s="4">
-        <v>161</v>
-      </c>
-      <c r="D265" t="s" s="4">
+      <c r="E265" t="s" s="4">
         <v>762</v>
-      </c>
-      <c r="E265" t="s" s="4">
-        <v>763</v>
       </c>
       <c r="F265" t="s" s="4">
         <v>221</v>
@@ -9225,110 +9225,110 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="4">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B266" t="s" s="4">
+        <v>763</v>
+      </c>
+      <c r="C266" t="s" s="4">
+        <v>161</v>
+      </c>
+      <c r="D266" t="s" s="4">
         <v>764</v>
       </c>
-      <c r="C266" t="s" s="4">
-        <v>288</v>
-      </c>
-      <c r="D266" t="s" s="4">
+      <c r="E266" t="s" s="4">
         <v>765</v>
       </c>
-      <c r="E266" t="s" s="4">
-        <v>766</v>
-      </c>
       <c r="F266" t="s" s="4">
-        <v>767</v>
+        <v>221</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="4">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B267" t="s" s="4">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C267" t="s" s="4">
-        <v>177</v>
+        <v>288</v>
       </c>
       <c r="D267" t="s" s="4">
+        <v>767</v>
+      </c>
+      <c r="E267" t="s" s="4">
         <v>768</v>
       </c>
-      <c r="E267" t="s" s="4">
-        <v>766</v>
-      </c>
       <c r="F267" t="s" s="4">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="4">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B268" t="s" s="4">
+        <v>766</v>
+      </c>
+      <c r="C268" t="s" s="4">
+        <v>177</v>
+      </c>
+      <c r="D268" t="s" s="4">
+        <v>770</v>
+      </c>
+      <c r="E268" t="s" s="4">
+        <v>768</v>
+      </c>
+      <c r="F268" t="s" s="4">
         <v>769</v>
-      </c>
-      <c r="C268" t="s" s="4">
-        <v>770</v>
-      </c>
-      <c r="D268" t="s" s="4">
-        <v>768</v>
-      </c>
-      <c r="E268" t="s" s="4">
-        <v>771</v>
-      </c>
-      <c r="F268" t="s" s="4">
-        <v>221</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="4">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B269" t="s" s="4">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="C269" t="s" s="4">
+        <v>772</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>770</v>
       </c>
-      <c r="D269" t="s" s="4">
-        <v>772</v>
-      </c>
       <c r="E269" t="s" s="4">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="F269" t="s" s="4">
-        <v>767</v>
+        <v>221</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="4">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B270" t="s" s="4">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C270" t="s" s="4">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D270" t="s" s="4">
         <v>774</v>
       </c>
       <c r="E270" t="s" s="4">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="F270" t="s" s="4">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s" s="4">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B271" t="s" s="4">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C271" t="s" s="4">
         <v>775</v>
@@ -9337,130 +9337,130 @@
         <v>776</v>
       </c>
       <c r="E271" t="s" s="4">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="F271" t="s" s="4">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s" s="4">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B272" t="s" s="4">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C272" t="s" s="4">
-        <v>291</v>
+        <v>777</v>
       </c>
       <c r="D272" t="s" s="4">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E272" t="s" s="4">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="F272" t="s" s="4">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="4">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B273" t="s" s="4">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C273" t="s" s="4">
-        <v>181</v>
+        <v>291</v>
       </c>
       <c r="D273" t="s" s="4">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E273" t="s" s="4">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="F273" t="s" s="4">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="4">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B274" t="s" s="4">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C274" t="s" s="4">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D274" t="s" s="4">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E274" t="s" s="4">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="F274" t="s" s="4">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="4">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B275" t="s" s="4">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C275" t="s" s="4">
-        <v>780</v>
+        <v>190</v>
       </c>
       <c r="D275" t="s" s="4">
         <v>781</v>
       </c>
       <c r="E275" t="s" s="4">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="F275" t="s" s="4">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="4">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B276" t="s" s="4">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C276" t="s" s="4">
-        <v>297</v>
+        <v>782</v>
       </c>
       <c r="D276" t="s" s="4">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E276" t="s" s="4">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="F276" t="s" s="4">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="4">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B277" t="s" s="4">
-        <v>783</v>
+        <v>766</v>
       </c>
       <c r="C277" t="s" s="4">
+        <v>297</v>
+      </c>
+      <c r="D277" t="s" s="4">
         <v>784</v>
       </c>
-      <c r="D277" t="s" s="4">
-        <v>785</v>
-      </c>
       <c r="E277" t="s" s="4">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="F277" t="s" s="4">
-        <v>787</v>
+        <v>769</v>
       </c>
     </row>
     <row r="278">
@@ -9468,30 +9468,30 @@
         <v>55</v>
       </c>
       <c r="B278" t="s" s="4">
+        <v>785</v>
+      </c>
+      <c r="C278" t="s" s="4">
+        <v>786</v>
+      </c>
+      <c r="D278" t="s" s="4">
+        <v>787</v>
+      </c>
+      <c r="E278" t="s" s="4">
         <v>788</v>
       </c>
-      <c r="C278" t="s" s="4">
-        <v>202</v>
-      </c>
-      <c r="D278" t="s" s="4">
+      <c r="F278" t="s" s="4">
         <v>789</v>
-      </c>
-      <c r="E278" t="s" s="4">
-        <v>790</v>
-      </c>
-      <c r="F278" t="s" s="4">
-        <v>200</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="4">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B279" t="s" s="4">
-        <v>764</v>
+        <v>790</v>
       </c>
       <c r="C279" t="s" s="4">
-        <v>503</v>
+        <v>202</v>
       </c>
       <c r="D279" t="s" s="4">
         <v>791</v>
@@ -9500,78 +9500,78 @@
         <v>792</v>
       </c>
       <c r="F279" t="s" s="4">
-        <v>793</v>
+        <v>200</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s" s="4">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B280" t="s" s="4">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C280" t="s" s="4">
-        <v>218</v>
+        <v>503</v>
       </c>
       <c r="D280" t="s" s="4">
+        <v>793</v>
+      </c>
+      <c r="E280" t="s" s="4">
         <v>794</v>
       </c>
-      <c r="E280" t="s" s="4">
+      <c r="F280" t="s" s="4">
         <v>795</v>
-      </c>
-      <c r="F280" t="s" s="4">
-        <v>793</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="4">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B281" t="s" s="4">
+        <v>766</v>
+      </c>
+      <c r="C281" t="s" s="4">
+        <v>218</v>
+      </c>
+      <c r="D281" t="s" s="4">
         <v>796</v>
       </c>
-      <c r="C281" t="s" s="4">
-        <v>223</v>
-      </c>
-      <c r="D281" t="s" s="4">
+      <c r="E281" t="s" s="4">
         <v>797</v>
       </c>
-      <c r="E281" t="s" s="4">
-        <v>798</v>
-      </c>
       <c r="F281" t="s" s="4">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="4">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B282" t="s" s="4">
+        <v>798</v>
+      </c>
+      <c r="C282" t="s" s="4">
+        <v>223</v>
+      </c>
+      <c r="D282" t="s" s="4">
+        <v>799</v>
+      </c>
+      <c r="E282" t="s" s="4">
         <v>800</v>
       </c>
-      <c r="C282" t="s" s="4">
-        <v>205</v>
-      </c>
-      <c r="D282" t="s" s="4">
+      <c r="F282" t="s" s="4">
         <v>801</v>
-      </c>
-      <c r="E282" t="s" s="4">
-        <v>802</v>
-      </c>
-      <c r="F282" t="s" s="4">
-        <v>221</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B283" t="s" s="4">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C283" t="s" s="4">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="D283" t="s" s="4">
         <v>803</v>
@@ -9585,13 +9585,13 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B284" t="s" s="4">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C284" t="s" s="4">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="D284" t="s" s="4">
         <v>805</v>
@@ -9600,78 +9600,78 @@
         <v>806</v>
       </c>
       <c r="F284" t="s" s="4">
-        <v>807</v>
+        <v>221</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B285" t="s" s="4">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C285" t="s" s="4">
-        <v>770</v>
+        <v>177</v>
       </c>
       <c r="D285" t="s" s="4">
+        <v>807</v>
+      </c>
+      <c r="E285" t="s" s="4">
         <v>808</v>
       </c>
-      <c r="E285" t="s" s="4">
-        <v>806</v>
-      </c>
       <c r="F285" t="s" s="4">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B286" t="s" s="4">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C286" t="s" s="4">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D286" t="s" s="4">
+        <v>810</v>
+      </c>
+      <c r="E286" t="s" s="4">
+        <v>808</v>
+      </c>
+      <c r="F286" t="s" s="4">
         <v>809</v>
-      </c>
-      <c r="E286" t="s" s="4">
-        <v>810</v>
-      </c>
-      <c r="F286" t="s" s="4">
-        <v>807</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B287" t="s" s="4">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C287" t="s" s="4">
+        <v>775</v>
+      </c>
+      <c r="D287" t="s" s="4">
         <v>811</v>
       </c>
-      <c r="D287" t="s" s="4">
+      <c r="E287" t="s" s="4">
         <v>812</v>
       </c>
-      <c r="E287" t="s" s="4">
-        <v>813</v>
-      </c>
       <c r="F287" t="s" s="4">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B288" t="s" s="4">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C288" t="s" s="4">
-        <v>291</v>
+        <v>813</v>
       </c>
       <c r="D288" t="s" s="4">
         <v>814</v>
@@ -9680,18 +9680,18 @@
         <v>815</v>
       </c>
       <c r="F288" t="s" s="4">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B289" t="s" s="4">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C289" t="s" s="4">
-        <v>181</v>
+        <v>291</v>
       </c>
       <c r="D289" t="s" s="4">
         <v>816</v>
@@ -9700,58 +9700,58 @@
         <v>817</v>
       </c>
       <c r="F289" t="s" s="4">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B290" t="s" s="4">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C290" t="s" s="4">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D290" t="s" s="4">
         <v>818</v>
       </c>
       <c r="E290" t="s" s="4">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="F290" t="s" s="4">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B291" t="s" s="4">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C291" t="s" s="4">
-        <v>780</v>
+        <v>190</v>
       </c>
       <c r="D291" t="s" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E291" t="s" s="4">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="F291" t="s" s="4">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B292" t="s" s="4">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C292" t="s" s="4">
-        <v>192</v>
+        <v>782</v>
       </c>
       <c r="D292" t="s" s="4">
         <v>821</v>
@@ -9760,87 +9760,87 @@
         <v>822</v>
       </c>
       <c r="F292" t="s" s="4">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B293" t="s" s="4">
+        <v>802</v>
+      </c>
+      <c r="C293" t="s" s="4">
+        <v>192</v>
+      </c>
+      <c r="D293" t="s" s="4">
         <v>823</v>
       </c>
-      <c r="C293" t="s" s="4">
-        <v>784</v>
-      </c>
-      <c r="D293" t="s" s="4">
+      <c r="E293" t="s" s="4">
         <v>824</v>
       </c>
-      <c r="E293" t="s" s="4">
-        <v>825</v>
-      </c>
       <c r="F293" t="s" s="4">
-        <v>826</v>
+        <v>809</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B294" t="s" s="4">
-        <v>800</v>
+        <v>825</v>
       </c>
       <c r="C294" t="s" s="4">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D294" t="s" s="4">
+        <v>826</v>
+      </c>
+      <c r="E294" t="s" s="4">
         <v>827</v>
       </c>
-      <c r="E294" t="s" s="4">
+      <c r="F294" t="s" s="4">
         <v>828</v>
-      </c>
-      <c r="F294" t="s" s="4">
-        <v>807</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B295" t="s" s="4">
-        <v>823</v>
+        <v>802</v>
       </c>
       <c r="C295" t="s" s="4">
+        <v>786</v>
+      </c>
+      <c r="D295" t="s" s="4">
         <v>829</v>
       </c>
-      <c r="D295" t="s" s="4">
+      <c r="E295" t="s" s="4">
         <v>830</v>
       </c>
-      <c r="E295" t="s" s="4">
-        <v>831</v>
-      </c>
       <c r="F295" t="s" s="4">
-        <v>832</v>
+        <v>809</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="4">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B296" t="s" s="4">
+        <v>825</v>
+      </c>
+      <c r="C296" t="s" s="4">
+        <v>831</v>
+      </c>
+      <c r="D296" t="s" s="4">
+        <v>832</v>
+      </c>
+      <c r="E296" t="s" s="4">
         <v>833</v>
       </c>
-      <c r="C296" t="s" s="4">
+      <c r="F296" t="s" s="4">
         <v>834</v>
-      </c>
-      <c r="D296" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="E296" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="F296" t="s" s="4">
-        <v>26</v>
       </c>
     </row>
     <row r="297">
@@ -10471,7 +10471,7 @@
         <v>836</v>
       </c>
       <c r="C328" t="s" s="4">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D328" t="s" s="4">
         <v>901</v>
@@ -10491,7 +10491,7 @@
         <v>836</v>
       </c>
       <c r="C329" t="s" s="4">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D329" t="s" s="4">
         <v>901</v>
@@ -10511,7 +10511,7 @@
         <v>836</v>
       </c>
       <c r="C330" t="s" s="4">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D330" t="s" s="4">
         <v>901</v>
@@ -10531,7 +10531,7 @@
         <v>836</v>
       </c>
       <c r="C331" t="s" s="4">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D331" t="s" s="4">
         <v>904</v>
@@ -10551,7 +10551,7 @@
         <v>836</v>
       </c>
       <c r="C332" t="s" s="4">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D332" t="s" s="4">
         <v>904</v>
@@ -10571,7 +10571,7 @@
         <v>836</v>
       </c>
       <c r="C333" t="s" s="4">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D333" t="s" s="4">
         <v>904</v>
@@ -10591,7 +10591,7 @@
         <v>907</v>
       </c>
       <c r="C334" t="s" s="4">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D334" t="s" s="4">
         <v>908</v>
@@ -11511,7 +11511,7 @@
         <v>926</v>
       </c>
       <c r="C380" t="s" s="4">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="D380" t="s" s="4">
         <v>994</v>
@@ -11531,7 +11531,7 @@
         <v>926</v>
       </c>
       <c r="C381" t="s" s="4">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="D381" t="s" s="4">
         <v>994</v>
@@ -11551,7 +11551,7 @@
         <v>926</v>
       </c>
       <c r="C382" t="s" s="4">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="D382" t="s" s="4">
         <v>994</v>
